--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.corp.fenaco.com\dfs-ersag\Home\louis.feuillet\Desktop\Pkkr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ECD535-CC39-40D5-B566-1A9F4260DF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCAC35-11A6-41FF-A59F-755CB19F4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="7875" windowWidth="14400" windowHeight="8700" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Ein Bluffer wurde früh entdeckt. Wie erwartet verlor er alles. Ein Schark war auch aggresiv. Verlor auch Geld. Rest waren Tight (Einige leicht Bluffbar)</t>
+  </si>
+  <si>
+    <t>Ziel</t>
+  </si>
+  <si>
+    <t>AA Slowplay war Fehler, Flush des Gegners nicht wahrgenommen</t>
+  </si>
+  <si>
+    <t>Continuationbets waren Killer, generell nichts getroffen auch bei Flush/Straightdraws, Es muss bereits bei Beginn weniger gespielt werden.</t>
   </si>
 </sst>
 </file>
@@ -505,28 +514,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="142.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="142.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -561,13 +571,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -601,12 +614,15 @@
       <c r="K2" s="4">
         <v>5.74</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -640,33 +656,63 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45920</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45920</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -680,10 +726,11 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -697,10 +744,11 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -714,10 +762,11 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -731,10 +780,11 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -748,10 +798,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -765,10 +816,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -782,10 +834,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -799,10 +852,11 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -816,10 +870,11 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -833,10 +888,11 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -850,10 +906,11 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -867,10 +924,11 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -884,10 +942,11 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -901,10 +960,11 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -918,10 +978,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -935,10 +996,11 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -952,10 +1014,11 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -969,10 +1032,11 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -986,10 +1050,11 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1003,10 +1068,11 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1020,10 +1086,11 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1037,10 +1104,11 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1054,10 +1122,11 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1071,10 +1140,11 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1088,10 +1158,11 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1105,10 +1176,11 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1122,10 +1194,11 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1139,10 +1212,11 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1156,10 +1230,11 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1173,10 +1248,11 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1190,10 +1266,11 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1207,10 +1284,11 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1224,10 +1302,11 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1241,10 +1320,11 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1258,10 +1338,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1275,10 +1356,11 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1292,6 +1374,25 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCAC35-11A6-41FF-A59F-755CB19F4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5FFDF3-07CF-4618-B9E1-D0F9C1E94EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>Continuationbets waren Killer, generell nichts getroffen auch bei Flush/Straightdraws, Es muss bereits bei Beginn weniger gespielt werden.</t>
+  </si>
+  <si>
+    <t>VPIP</t>
+  </si>
+  <si>
+    <t>Alkohol</t>
+  </si>
+  <si>
+    <t>3 Bier</t>
+  </si>
+  <si>
+    <t>Nichts</t>
+  </si>
+  <si>
+    <t>1 Bier</t>
   </si>
 </sst>
 </file>
@@ -108,7 +123,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="h/mm&quot; Uhr&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +133,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -156,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,8 +203,12 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -531,12 +558,12 @@
     <col min="7" max="7" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="67.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="142.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="142.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,13 +601,19 @@
         <v>17</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -617,12 +650,16 @@
       <c r="L2" s="4">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -659,14 +696,18 @@
       <c r="L3" s="4">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -703,14 +744,20 @@
       <c r="L4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -727,8 +774,10 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -745,8 +794,10 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -763,8 +814,10 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -781,8 +834,10 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -799,8 +854,10 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -817,8 +874,10 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -835,8 +894,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -853,8 +914,10 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -871,8 +934,10 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -889,8 +954,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -907,8 +974,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -925,8 +994,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -943,8 +1014,10 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -961,8 +1034,10 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -979,8 +1054,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -997,8 +1074,10 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1015,8 +1094,10 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1033,8 +1114,10 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1051,8 +1134,10 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1069,8 +1154,10 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1087,8 +1174,10 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1105,8 +1194,10 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1123,8 +1214,10 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1141,8 +1234,10 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1159,8 +1254,10 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1177,8 +1274,10 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1195,8 +1294,10 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1213,8 +1314,10 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1231,8 +1334,10 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1249,8 +1354,10 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1267,8 +1374,10 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1285,8 +1394,10 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1303,8 +1414,10 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1321,8 +1434,10 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1339,8 +1454,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1357,8 +1474,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1375,8 +1494,10 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1393,6 +1514,8 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.corp.fenaco.com\dfs-ersag\Home\louis.feuillet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5FFDF3-07CF-4618-B9E1-D0F9C1E94EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38454370-79EE-4ADD-B084-13C6A7E225A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Spieltabelle" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeitplan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -111,19 +112,68 @@
   </si>
   <si>
     <t>1 Bier</t>
+  </si>
+  <si>
+    <t>Spielart</t>
+  </si>
+  <si>
+    <t>Cashgame</t>
+  </si>
+  <si>
+    <t>Teilnehmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum </t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>John Hopkins Course Lektion 6</t>
+  </si>
+  <si>
+    <t>John Hopkins Course Lektion 7</t>
+  </si>
+  <si>
+    <t>John Hopkins Course Lektion 8</t>
+  </si>
+  <si>
+    <t>John Hopkins Course Lektion 9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7cAzgUIKI68&amp;list=PLDnwrrrc6YX2T56pcIoGnEvo45rSi4d_v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Hopkins Course Lektion 5 </t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Nachschauen: online Turniere 10 bis 50fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachschauen: Gratis Turniere </t>
+  </si>
+  <si>
+    <t>Cambodia: kann dort cash game gespielt werden</t>
+  </si>
+  <si>
+    <t>Pokerverein St.gallen: Nachfragen bezüglich Cashgame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;min.&quot;_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="h/mm&quot; Uhr&quot;;@"/>
+    <numFmt numFmtId="169" formatCode="&quot;KW&quot;\ 0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +191,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,11 +242,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,8 +271,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -541,227 +610,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="67.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="142.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11" style="1" customWidth="1"/>
+    <col min="17" max="17" width="67.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="142.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>0.02</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="6">
         <v>45906</v>
       </c>
-      <c r="F2" s="7">
+      <c r="H2" s="7">
         <v>0.875</v>
       </c>
-      <c r="G2" s="6">
+      <c r="I2" s="6">
         <v>45907</v>
       </c>
-      <c r="H2" s="7">
+      <c r="J2" s="7">
         <v>0.13263888888888889</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>5.74</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="4">
         <v>5</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>0.01</v>
-      </c>
-      <c r="E3" s="6">
-        <v>45918</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.83333333333333337</v>
       </c>
       <c r="G3" s="6">
         <v>45918</v>
       </c>
       <c r="H3" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I3" s="6">
+        <v>45918</v>
+      </c>
+      <c r="J3" s="7">
         <v>0.875</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>1.2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2</v>
       </c>
       <c r="L3" s="4">
         <v>2</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4">
         <v>0.01</v>
-      </c>
-      <c r="E4" s="6">
-        <v>45920</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.91666666666666663</v>
       </c>
       <c r="G4" s="6">
         <v>45920</v>
       </c>
       <c r="H4" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I4" s="6">
+        <v>45920</v>
+      </c>
+      <c r="J4" s="7">
         <v>0.97916666666666663</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>1.2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>1.45</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="O4" s="8">
         <v>0.51</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -776,12 +871,14 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -796,12 +893,14 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -816,12 +915,14 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -836,12 +937,14 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -856,12 +959,14 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -876,12 +981,14 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -896,12 +1003,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -916,12 +1025,14 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -936,12 +1047,14 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -956,12 +1069,14 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -976,12 +1091,14 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -996,12 +1113,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1016,12 +1135,14 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1036,12 +1157,14 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1056,12 +1179,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1076,12 +1201,14 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1096,12 +1223,14 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1116,12 +1245,14 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1136,12 +1267,14 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1156,12 +1289,14 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1176,12 +1311,14 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1196,12 +1333,14 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1216,12 +1355,14 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1236,12 +1377,14 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1256,12 +1399,14 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1276,12 +1421,14 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1296,12 +1443,14 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1316,12 +1465,14 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1336,12 +1487,14 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1356,12 +1509,14 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1376,12 +1531,14 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1396,12 +1553,14 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1416,12 +1575,14 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1436,12 +1597,14 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1456,12 +1619,14 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1476,12 +1641,14 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1496,12 +1663,14 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1516,9 +1685,192 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C0F3D-00F9-4E1E-8B19-07A74728370D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10">
+        <v>45930</v>
+      </c>
+      <c r="E2" s="11">
+        <f>_xlfn.ISOWEEKNUM(D2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45933</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E10" si="0">_xlfn.ISOWEEKNUM(D3)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45937</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45940</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45943</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{41F55F32-5969-4DAA-B971-84D8A563B361}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7BBE4EA3-6158-4A2C-870F-0805A43E30DC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{848572F6-9CF5-4148-9BFC-66638390AE36}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9684C2BD-03D2-436C-9284-ACDC23838401}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D96A3DB7-F97D-45B2-B926-A53CA9230CC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+</worksheet>
 </file>
--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.corp.fenaco.com\dfs-ersag\Home\louis.feuillet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38454370-79EE-4ADD-B084-13C6A7E225A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9B847-F1B2-4998-95CD-DA36F9178950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Spieltabelle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Pokerverein St.gallen: Nachfragen bezüglich Cashgame</t>
+  </si>
+  <si>
+    <t>2. führten nicht zum Ziel</t>
+  </si>
+  <si>
+    <t>VPIP immer noch zu hoch, eigene Continuationbet war Fehler. Range des Gegners wurdenicht beachtet.</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
     <numFmt numFmtId="164" formatCode="&quot;min.&quot;_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="h/mm&quot; Uhr&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="&quot;KW&quot;\ 0"/>
+    <numFmt numFmtId="167" formatCode="&quot;KW&quot;\ 0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -273,7 +279,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -613,28 +619,28 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B6" sqref="B6:R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="67.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="142.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="142.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -690,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -742,7 +748,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -796,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -852,843 +858,878 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45929</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45929</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="4"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="4"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1702,15 +1743,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1745,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1759,11 +1800,11 @@
         <v>45933</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E10" si="0">_xlfn.ISOWEEKNUM(D3)</f>
+        <f t="shared" ref="E3:E6" si="0">_xlfn.ISOWEEKNUM(D3)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1781,7 +1822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1799,7 +1840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1817,7 +1858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1828,7 +1869,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1839,7 +1880,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1850,7 +1891,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9B847-F1B2-4998-95CD-DA36F9178950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BBC999-47EB-444F-BE49-6CDF1E642C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -162,10 +162,19 @@
     <t>Pokerverein St.gallen: Nachfragen bezüglich Cashgame</t>
   </si>
   <si>
-    <t>2. führten nicht zum Ziel</t>
-  </si>
-  <si>
     <t>VPIP immer noch zu hoch, eigene Continuationbet war Fehler. Range des Gegners wurdenicht beachtet.</t>
+  </si>
+  <si>
+    <t>1 Schotch</t>
+  </si>
+  <si>
+    <t>2 führten nicht zum Ziel</t>
+  </si>
+  <si>
+    <t>Immer noch zu viel preflop mit wenig Value gecallt, viel Kartenglück (ein Vierling, ein Fullhouse)</t>
+  </si>
+  <si>
+    <t>Gegener waren leichter zu bluffen, C-Bet ist aber immer noch ein Problem (Ich bin zu passiv)</t>
   </si>
 </sst>
 </file>
@@ -619,7 +628,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R42"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -890,7 +899,7 @@
         <v>0.89930555555555558</v>
       </c>
       <c r="K5" s="4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -908,33 +917,67 @@
         <v>23</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45934</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45934</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BBC999-47EB-444F-BE49-6CDF1E642C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C76FC-7D66-48F9-8578-0084B4A0FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>Gegener waren leichter zu bluffen, C-Bet ist aber immer noch ein Problem (Ich bin zu passiv)</t>
+  </si>
+  <si>
+    <t>Schlechte Karten, Strasse des Gegners nicht gesehen</t>
+  </si>
+  <si>
+    <t>Spielten alle gemäss Buch</t>
+  </si>
+  <si>
+    <t>2 Bier</t>
+  </si>
+  <si>
+    <t>Gute Karten (ein Flush)</t>
+  </si>
+  <si>
+    <t>Ein Fisch war dabei, bluffte oft, musste 3mal sich einkaufen (Volsha)</t>
   </si>
 </sst>
 </file>
@@ -628,7 +643,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -645,7 +660,7 @@
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="142.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -983,45 +998,113 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45948</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="I7" s="6">
+        <v>45948</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45948</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45948</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.08</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C76FC-7D66-48F9-8578-0084B4A0FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C41CD2-DEEE-4B9A-832A-1995C54577F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>Ein Fisch war dabei, bluffte oft, musste 3mal sich einkaufen (Volsha)</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Karten mit (ein Full House)</t>
+  </si>
+  <si>
+    <t>Sehr viel limping, C-Bets haben meisten funktioniert</t>
+  </si>
+  <si>
+    <t>3mal 2Paare und gegen Brodway verloren</t>
+  </si>
+  <si>
+    <t>Sehr viel limping, Viele 3way Pots, sehr viel Tilting (shanesas)</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:O9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1110,45 +1122,113 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45949</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45949</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45949</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45949</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.corp.fenaco.com\dfs-ersag\Home\louis.feuillet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C41CD2-DEEE-4B9A-832A-1995C54577F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB2A2F1-CF60-4F2C-8504-54D876D669E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Spieltabelle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -202,18 +202,31 @@
   </si>
   <si>
     <t>Sehr viel limping, Viele 3way Pots, sehr viel Tilting (shanesas)</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Zeitaufwand</t>
+  </si>
+  <si>
+    <t>Stundenlohn</t>
+  </si>
+  <si>
+    <t>Gewinn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;min.&quot;_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="h/mm&quot; Uhr&quot;;@"/>
     <numFmt numFmtId="167" formatCode="&quot;KW&quot;\ 0"/>
+    <numFmt numFmtId="168" formatCode="h/mm&quot; Std&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -289,7 +302,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +329,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -652,31 +674,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="142.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11" style="1" customWidth="1"/>
+    <col min="21" max="21" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="142.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -696,47 +723,59 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -751,44 +790,65 @@
       <c r="F2" s="4">
         <v>0.02</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
+        <f>F2*2</f>
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="6">
         <v>45906</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>0.875</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>45907</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>0.13263888888888889</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="12">
+        <f t="shared" ref="L2:L42" si="0">(J2+K2)-(H2+I2)</f>
+        <v>0.25763888889196096</v>
+      </c>
+      <c r="M2" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>N2-M2</f>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="P2" s="4">
+        <f>_xlfn.LET(
+   _xlpm.out, SUBSTITUTE(O2,"CHF ",""),
+   IF(_xlpm.out="-", "",
+      IFERROR( _xlfn.NUMBERVALUE(_xlpm.out) / (L2*24), "" )
+   )
+)</f>
+        <v>-0.37196765498208756</v>
+      </c>
+      <c r="Q2" s="4">
         <v>5.74</v>
       </c>
-      <c r="N2" s="4">
+      <c r="R2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -803,46 +863,67 @@
       <c r="F3" s="4">
         <v>0.01</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G42" si="1">F3*2</f>
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="6">
         <v>45918</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>45918</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>0.875</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="M3" s="4">
         <v>1.2</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2</v>
       </c>
       <c r="N3" s="4">
         <v>2</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O42" si="2">N3-M3</f>
+        <v>0.8</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P42" si="3">_xlfn.LET(
+   _xlpm.out, SUBSTITUTE(O3,"CHF ",""),
+   IF(_xlpm.out="-", "",
+      IFERROR( _xlfn.NUMBERVALUE(_xlpm.out) / (L3*24), "" )
+   )
+)</f>
+        <v>0.80000000004656613</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="U3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="V3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -857,48 +938,64 @@
       <c r="F4" s="4">
         <v>0.01</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="6">
         <v>45920</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>45920</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>0.97916666666666663</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="12">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M4" s="4">
         <v>1.2</v>
       </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="Q4" s="4">
         <v>1.45</v>
       </c>
-      <c r="N4" s="4">
+      <c r="R4" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="S4" s="8">
         <v>0.51</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="U4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="V4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -913,48 +1010,64 @@
       <c r="F5" s="4">
         <v>0.01</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="6">
         <v>45929</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>0.88194444444444442</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>45929</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>0.89930555555555558</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="12">
+        <f t="shared" si="0"/>
+        <v>1.7361111109494232E-2</v>
+      </c>
+      <c r="M5" s="4">
         <v>1.5</v>
       </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.6000000003352763</v>
+      </c>
+      <c r="Q5" s="4">
         <v>1.55</v>
       </c>
-      <c r="N5" s="4">
+      <c r="R5" s="4">
         <v>3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="S5" s="8">
         <v>0.41</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="U5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="V5" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -969,48 +1082,64 @@
       <c r="F6" s="4">
         <v>0.01</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="6">
         <v>45934</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>0.71180555555555558</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>45934</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>0.76041666666666663</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="12">
+        <f t="shared" si="0"/>
+        <v>4.8611111109494232E-2</v>
+      </c>
+      <c r="M6" s="4">
         <v>1.5</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>2.87</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.37</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1742857143247729</v>
+      </c>
+      <c r="Q6" s="4">
         <v>2.87</v>
       </c>
-      <c r="N6" s="4">
+      <c r="R6" s="4">
         <v>3</v>
       </c>
-      <c r="O6" s="8">
+      <c r="S6" s="8">
         <v>0.35</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="U6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="V6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1025,48 +1154,64 @@
       <c r="F7" s="4">
         <v>0.01</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="6">
         <v>45948</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>0.89236111111111116</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>45948</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>0.89930555555555558</v>
       </c>
-      <c r="K7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9444444452528842E-3</v>
       </c>
       <c r="M7" s="4">
         <v>1.5</v>
       </c>
       <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="3"/>
+        <v>-8.9999999989522621</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="4">
         <v>3</v>
       </c>
-      <c r="O7" s="8">
+      <c r="S7" s="8">
         <v>0.35</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="U7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="V7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1081,48 +1226,64 @@
       <c r="F8" s="4">
         <v>0.01</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="6">
         <v>45948</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>0.89930555555555558</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>45948</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>0.92708333333333337</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7777777781011537E-2</v>
+      </c>
+      <c r="M8" s="4">
         <v>1.5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>4</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7499999995634425</v>
+      </c>
+      <c r="Q8" s="4">
         <v>4.08</v>
       </c>
-      <c r="N8" s="4">
+      <c r="R8" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="8">
+      <c r="S8" s="8">
         <v>0.42</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="U8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="V8" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1137,48 +1298,64 @@
       <c r="F9" s="4">
         <v>0.01</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="6">
         <v>45949</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>0.72569444444444442</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>45949</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>0.76736111111111116</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="M9" s="4">
         <v>1.5</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>3.11</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6100000000937145</v>
+      </c>
+      <c r="Q9" s="4">
         <v>3.11</v>
       </c>
-      <c r="N9" s="4">
+      <c r="R9" s="4">
         <v>3</v>
       </c>
-      <c r="O9" s="8">
+      <c r="S9" s="8">
         <v>0.31</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="U9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="V9" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1193,746 +1370,1274 @@
       <c r="F10" s="4">
         <v>0.01</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="6">
         <v>45949</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>0.76736111111111116</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>45949</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>0.86111111111111116</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M10" s="4">
         <v>1.5</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>2.38</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.39111111111111113</v>
+      </c>
+      <c r="Q10" s="4">
         <v>2.5</v>
       </c>
-      <c r="N10" s="4">
+      <c r="R10" s="4">
         <v>3</v>
       </c>
-      <c r="O10" s="8">
+      <c r="S10" s="8">
         <v>0.4</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="U10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="V10" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="O18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="O19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="O20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="O21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="O22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="O23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="O24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="O25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="O26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="O27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="O28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="O29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="O30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="O31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="O32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="O33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="O34" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="O35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="O36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="O37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="O38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="O39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="O40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="O41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="G42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="O42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1949,15 +2654,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +2679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1992,7 +2697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2010,7 +2715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2028,7 +2733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2046,7 +2751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2064,7 +2769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2075,7 +2780,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2086,7 +2791,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2097,7 +2802,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.corp.fenaco.com\dfs-ersag\Home\louis.feuillet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB2A2F1-CF60-4F2C-8504-54D876D669E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE0A28-6B40-4BA5-AE5D-06F2C2F41E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Spieltabelle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>Gewinn</t>
+  </si>
+  <si>
+    <t>Hatte ein Paar mit gutem Kicker, Gegner hatte 2 Paare ich ging all in</t>
+  </si>
+  <si>
+    <t>Hatte strasse Gegner hatte flush, konnte aber sehen was passiert</t>
+  </si>
+  <si>
+    <t>Sehr viel reraisen, bei tight spiel (über 100% des Pots). Bei All in stellte sich heraus, Gegner hatten beim Flop nichts, nur mit Glück gewonnen</t>
+  </si>
+  <si>
+    <t>2 Schotch</t>
+  </si>
+  <si>
+    <t>2 Paar Könige siegten gegen 2 tight Player All Inn</t>
+  </si>
+  <si>
+    <t>Ein Fisch wurde früh entdeckt</t>
   </si>
 </sst>
 </file>
@@ -676,34 +694,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N2:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
     <col min="13" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="11" style="1" customWidth="1"/>
-    <col min="21" max="21" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="142.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="142.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -771,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -844,7 +862,7 @@
       </c>
       <c r="V2" s="13"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -919,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1135,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1257,7 +1275,12 @@
         <v>2.5</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.LET(
+   _xlpm.out, SUBSTITUTE(O8,"CHF ",""),
+   IF(_xlpm.out="-", "",
+      IFERROR( _xlfn.NUMBERVALUE(_xlpm.out) / (L8*24), "" )
+   )
+)</f>
         <v>3.7499999995634425</v>
       </c>
       <c r="Q8" s="4">
@@ -1279,7 +1302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -1351,7 +1374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -1423,121 +1446,226 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="6">
+        <v>45955</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45955</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="L11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+        <f>(J11+K11)-(H11+I11)</f>
+        <v>6.9444444452528842E-3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
       <c r="O11" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="13"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P11" s="4">
+        <f>_xlfn.LET(
+   _xlpm.out, SUBSTITUTE(O11,"CHF ",""),
+   IF(_xlpm.out="-", "",
+      IFERROR( _xlfn.NUMBERVALUE(_xlpm.out) / (L11*24), "" )
+   )
+)</f>
+        <v>-8.9999999989522621</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="4">
+        <v>3</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45955</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45955</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="L12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
       <c r="O12" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-1.5</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45955</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45955</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="L13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>4.92</v>
+      </c>
       <c r="O13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.42</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7309090908301208</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>4.92</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -1575,7 +1703,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -1613,7 +1741,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -1651,7 +1779,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -1689,7 +1817,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -1727,7 +1855,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -1765,7 +1893,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -1803,7 +1931,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -1841,7 +1969,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -1879,7 +2007,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -1917,7 +2045,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -1955,7 +2083,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -1993,7 +2121,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -2031,7 +2159,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -2069,7 +2197,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -2107,7 +2235,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -2145,7 +2273,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -2183,7 +2311,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -2221,7 +2349,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -2259,7 +2387,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>31</v>
       </c>
@@ -2297,7 +2425,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>32</v>
       </c>
@@ -2335,7 +2463,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -2373,7 +2501,7 @@
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>34</v>
       </c>
@@ -2411,7 +2539,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -2449,7 +2577,7 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>36</v>
       </c>
@@ -2487,7 +2615,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>37</v>
       </c>
@@ -2525,7 +2653,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>38</v>
       </c>
@@ -2563,7 +2691,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>39</v>
       </c>
@@ -2601,7 +2729,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>40</v>
       </c>
@@ -2654,15 +2782,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2697,7 +2825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2715,7 +2843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2733,7 +2861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2751,7 +2879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2769,7 +2897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2780,7 +2908,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2791,7 +2919,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2802,7 +2930,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE0A28-6B40-4BA5-AE5D-06F2C2F41E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63488A6B-1DC4-4092-BDCF-606FED88E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>Hatte strasse Gegner hatte flush, konnte aber sehen was passiert</t>
   </si>
   <si>
-    <t>Sehr viel reraisen, bei tight spiel (über 100% des Pots). Bei All in stellte sich heraus, Gegner hatten beim Flop nichts, nur mit Glück gewonnen</t>
-  </si>
-  <si>
     <t>2 Schotch</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Ein Fisch wurde früh entdeckt</t>
+  </si>
+  <si>
+    <t>Sehr viel reraisen, bei tight spiel (über 100% des Pots). Hatten alle Wolfsavatar. Bei All in stellte sich heraus, Gegner hatten beim Flop nichts, nur mit Glück gewonnen</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N2:N16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>60</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1656,13 +1656,13 @@
         <v>0.26</v>
       </c>
       <c r="T13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="V13" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63488A6B-1DC4-4092-BDCF-606FED88E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3B587-95CF-4F0A-A6D0-A8976CC162B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Sehr viel reraisen, bei tight spiel (über 100% des Pots). Hatten alle Wolfsavatar. Bei All in stellte sich heraus, Gegner hatten beim Flop nichts, nur mit Glück gewonnen</t>
+  </si>
+  <si>
+    <t>Keine brauchbaren Karten</t>
+  </si>
+  <si>
+    <t>Ein ASo verlor gegen AA</t>
+  </si>
+  <si>
+    <t>Keine Aussage möglich</t>
   </si>
 </sst>
 </file>
@@ -694,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1669,77 +1678,150 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
+        <f t="shared" ref="G14:G15" si="4">F14*2</f>
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45966</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="J14" s="6">
+        <v>45966</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="L14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+        <v>1.7361111109494232E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.6000000003352763</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R14" s="4">
+        <v>3</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45966</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45966</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.89097222222222228</v>
+      </c>
       <c r="L15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <f>(J15+K15)-(H15+I15)</f>
+        <v>2.0833333328482695E-3</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
       <c r="O15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P15" s="4">
+        <f>_xlfn.LET(
+   _xlpm.out, SUBSTITUTE(O15,"CHF ",""),
+   IF(_xlpm.out="-", "",
+      IFERROR( _xlfn.NUMBERVALUE(_xlpm.out) / (L15*24), "" )
+   )
+)</f>
+        <v>-30.000000006984919</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="14">

--- a/V1_2025/pk_tracking.xlsx
+++ b/V1_2025/pk_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3B587-95CF-4F0A-A6D0-A8976CC162B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB32C6E-3A99-4E2C-BE29-99CD9E9B9B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C666898-B663-4856-B14B-91BF47E0F88F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -241,6 +241,30 @@
   </si>
   <si>
     <t>Keine Aussage möglich</t>
+  </si>
+  <si>
+    <t>Ging All in Gegen tight aggresiv player mit TT. Er hatte JJ</t>
+  </si>
+  <si>
+    <t>Bluffen auf Trockenen Felder mit einer hohen Karte funtkioniert erstaunlich gut</t>
+  </si>
+  <si>
+    <t>Bluff der Gegner richtig erkannt. Eigene haben  trotzdem funktioniert</t>
+  </si>
+  <si>
+    <t>Ich wurde als Fisch erkannt und konnte dies teilweise nutzen, durchschnittliche Karten</t>
+  </si>
+  <si>
+    <t>Hatte Pech. Hatte überbettet, Gegner bekam trotzdem den Flush</t>
+  </si>
+  <si>
+    <t>Verzweiflung führte Allin bei Mddlepair. Ging verloren</t>
+  </si>
+  <si>
+    <t>Hatte Pech. Hatte überbettet, ging mit 2 paaren all in, Gegner hatte Set getroffen</t>
+  </si>
+  <si>
+    <t>Gegner waren gut lesbar</t>
   </si>
 </sst>
 </file>
@@ -703,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808A90D-F468-46CF-B2C1-2050CDD30B57}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1827,166 +1851,312 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45984</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J16" s="6">
+        <v>45984</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="L16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+        <v>6.9444444452528842E-3</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
       <c r="O16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="3"/>
+        <v>-7.1999999991618093</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R16" s="4">
+        <v>3</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45984</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45984</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.76736111111111116</v>
+      </c>
       <c r="L17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+        <v>5.2083333328482695E-2</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
       <c r="O17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.96000000008940689</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45984</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="J18" s="6">
+        <v>45984</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.77430555555555558</v>
+      </c>
       <c r="L18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+        <v>6.9444444452528842E-3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
       <c r="O18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="3"/>
+        <v>-7.1999999991618093</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R18" s="4">
+        <v>3</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45984</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="J19" s="6">
+        <v>45984</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.78402777777777777</v>
+      </c>
       <c r="L19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+        <v>9.7222222248092294E-3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
       <c r="O19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="3"/>
+        <v>-5.142857141488669</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="R19" s="4">
+        <v>3</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
@@ -1996,18 +2166,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <v>1.2</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4">
+        <v>3</v>
+      </c>
       <c r="S20" s="8"/>
       <c r="T20" s="4"/>
       <c r="U20" s="13"/>
